--- a/新警成长管理工具/Resources/警员数据导入模板.xlsx
+++ b/新警成长管理工具/Resources/警员数据导入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsc06\source\repos\新警成长管理工具\新警成长管理工具\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDAD5D5-E63A-49B8-A994-092D7330F2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7FF342-7CE2-4D3F-B398-5AB2450D0C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F58EBAEC-FB60-4595-9456-5CC3912B5F24}"/>
   </bookViews>
@@ -36,32 +36,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>警号</t>
-  </si>
-  <si>
-    <t>入警途径</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>住址</t>
   </si>
   <si>
-    <t>学历（本科生/研究生）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中共党员（是/否）</t>
+    <t>本科生</t>
+  </si>
+  <si>
+    <t>社招</t>
+  </si>
+  <si>
+    <t>江苏省溧阳市xxx小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警号*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号(身份证格式)*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历(本科生/研究生)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入警年份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共党员(是/否)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>320481202001011234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入警途径(警校/社招/军转)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +113,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -108,8 +149,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737B1631-B4A7-4A46-8CEC-6AF17E18472C}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -454,39 +501,65 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -503,5 +576,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>